--- a/DB/pokemons con stats.xlsx
+++ b/DB/pokemons con stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narciso\source\repos\monster-Feudal\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Absol</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>SATK</t>
+  </si>
+  <si>
+    <t>SDEF</t>
+  </si>
+  <si>
+    <t>VEL</t>
   </si>
 </sst>
 </file>
@@ -614,7 +629,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +644,21 @@
       <c r="C1" t="s">
         <v>89</v>
       </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
